--- a/javlib/Reference/Info_Getter/output.xlsx
+++ b/javlib/Reference/Info_Getter/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,15 +1383,11 @@
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
+      <c r="L11" t="n">
+        <v>137</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.8</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1423,9 +1419,103 @@
           <t>https://www.dmm.co.jp/digital/videoa/-/detail/=/cid=dvaj00607</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>2023</t>
+      <c r="T11" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>永井マリア</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://pics.dmm.co.jp/digital/video/blk00544/blk00544pl.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-1.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-2.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-3.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-4.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-5.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-6.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-7.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-8.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-9.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-10.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-11.jpg', 'https://pics.dmm.co.jp/digital/video/blk00544/blk00544jp-12.jpg']</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>kira☆kira BLACK GAL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>blk00544</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>kira☆kira専属・永井マリアのハイパー逆NTR5シチュエーションSPECIAL！露出狂、隣人、バイト不倫、エステ、女上司相部屋！他人のチ○ポを横取りするのが大好き！ド迫力BODYとエロコスチュームとオーバー淫語で全て横綱級パワープレイNTR！！永井マリアにだったら逆NTRされても文句は言えないよ！だって全てにおいて規格外すぎるから！マリア様もノッリノリでエッロエロな5シチュエーション150分！！</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kira☆kira BLACK GAL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>fanza.py</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>kira☆kira</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>['ハイビジョン', '独占配信', '寝取り・寝取られ・NTR', '痴女', '巨尻', '単体作品', '中出し']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>他人のチ○ポで痴女りまくり！！永井マリアのパワープレイ逆NTR 5コス5シチュSPECIAL</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://www.dmm.co.jp/digital/videoa/-/detail/=/cid=blk00544</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
